--- a/biology/Origine et évolution du vivant/Michael_Cremo/Michael_Cremo.xlsx
+++ b/biology/Origine et évolution du vivant/Michael_Cremo/Michael_Cremo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael A. Cremo, né le 15 juillet 1948 à Schenectady (État de New York), est un essayiste américain.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans son livre Histoire secrète de l'espèce humaine, il recense différentes découvertes anachroniques remettant en question la théorie de l'évolution et l'histoire évolutive des homininés[1]. Il se rattache au courant créationniste par sa religion, le Gaudiya Vishnouisme.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son livre Histoire secrète de l'espèce humaine, il recense différentes découvertes anachroniques remettant en question la théorie de l'évolution et l'histoire évolutive des homininés. Il se rattache au courant créationniste par sa religion, le Gaudiya Vishnouisme.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Thèses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael Cremo affirme qu'il existe des preuves archéologiques soutenant l'idée que l'être humain existe depuis des temps extrêmement reculés et qu'il n'est pas une évolution de créatures simiesques, citant les travaux de Mary Leakey et de Josiah Whitney[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Cremo affirme qu'il existe des preuves archéologiques soutenant l'idée que l'être humain existe depuis des temps extrêmement reculés et qu'il n'est pas une évolution de créatures simiesques, citant les travaux de Mary Leakey et de Josiah Whitney.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Michael A. Cremo et Richard L. Thompson, Forbidden archeology : the hidden history of the human race, San Diego, Bhaktivedanta Institute, 1993, 1re éd., 914 p. (ISBN 978-0-9635309-8-1)
 (en) Puranic Time and the Archeological Record in Tim Murray, éd. Time and Archaeology, Routledge, Londres, 1999
